--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gm13306-Ackr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1127026666666667</v>
+        <v>0.06493566666666667</v>
       </c>
       <c r="H2">
-        <v>0.338108</v>
+        <v>0.194807</v>
       </c>
       <c r="I2">
-        <v>0.07609660010866186</v>
+        <v>0.05459895593058446</v>
       </c>
       <c r="J2">
-        <v>0.07609660010866184</v>
+        <v>0.05459895593058446</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.03095123280622222</v>
+        <v>0.01783310897488889</v>
       </c>
       <c r="R2">
-        <v>0.278561095256</v>
+        <v>0.160497980774</v>
       </c>
       <c r="S2">
-        <v>0.07609660010866186</v>
+        <v>0.05459895593058446</v>
       </c>
       <c r="T2">
-        <v>0.07609660010866184</v>
+        <v>0.05459895593058446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>3.044973</v>
       </c>
       <c r="I3">
-        <v>0.6853197579550688</v>
+        <v>0.8534208043695533</v>
       </c>
       <c r="J3">
-        <v>0.6853197579550687</v>
+        <v>0.8534208043695533</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,10 +632,10 @@
         <v>2.508698445186</v>
       </c>
       <c r="S3">
-        <v>0.6853197579550688</v>
+        <v>0.8534208043695533</v>
       </c>
       <c r="T3">
-        <v>0.6853197579550687</v>
+        <v>0.8534208043695533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3533536666666666</v>
+        <v>0.109394</v>
       </c>
       <c r="H4">
-        <v>1.060061</v>
+        <v>0.328182</v>
       </c>
       <c r="I4">
-        <v>0.2385836419362694</v>
+        <v>0.09198023969986227</v>
       </c>
       <c r="J4">
-        <v>0.2385836419362694</v>
+        <v>0.09198023969986227</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0970405752002222</v>
+        <v>0.03004258250266666</v>
       </c>
       <c r="R4">
-        <v>0.873365176802</v>
+        <v>0.270383242524</v>
       </c>
       <c r="S4">
-        <v>0.2385836419362694</v>
+        <v>0.09198023969986227</v>
       </c>
       <c r="T4">
-        <v>0.2385836419362694</v>
+        <v>0.09198023969986227</v>
       </c>
     </row>
   </sheetData>
